--- a/data/trans_bre/P2A_lim_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,41%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 4,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 9,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 359,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; 163,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,32; 60,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,78; 275,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,02%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 1,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 2,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; -0,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,36; 74,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,48; 57,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,24; 77,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,55; -6,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,49; 104,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,07; 90,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 95,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,8; 107,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,85%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 7,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 1,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 7,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 132,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,67; 86,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,76; 19,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,21; 144,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,15%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 2,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 8,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; -2,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,71; 24,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,58; 60,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 105,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,39; -14,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,01%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 4,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 3,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 7,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 62,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,52; 50,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,73; 31,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,02; 100,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 434,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,69%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 7,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,17; 9,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 14,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 12,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,52; 66,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; 59,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,01; 234,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,2; 51,04</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>44,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 2,69</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,91</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 20,42</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 45,4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 41,42</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 46,21</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 170,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_lim_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Edad-trans_bre.xlsx
@@ -625,37 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-32,5%</t>
+          <t>-33,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>55,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,33</t>
+          <t>-0,17; 4,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,65</t>
+          <t>-1,54; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,21</t>
+          <t>-3,94; 1,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,44</t>
+          <t>-2,35; 8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 359,59</t>
+          <t>-14,87; 369,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 163,45</t>
+          <t>-27,15; 165,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 60,62</t>
+          <t>-72,03; 46,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 275,23</t>
+          <t>-29,2; 287,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,02%</t>
+          <t>-47,36%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,74</t>
+          <t>-2,11; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,85</t>
+          <t>-2,65; 2,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,99</t>
+          <t>-2,3; 1,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -0,57</t>
+          <t>-10,6; -0,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 74,15</t>
+          <t>-50,62; 76,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 57,29</t>
+          <t>-36,58; 60,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 77,65</t>
+          <t>-49,15; 67,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,55; -6,08</t>
+          <t>-72,2; -11,61</t>
         </is>
       </c>
     </row>
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +840,22 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,82</t>
+          <t>-1,72; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,34</t>
+          <t>-0,74; 5,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,23</t>
+          <t>-1,81; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,78</t>
+          <t>-1,45; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 104,49</t>
+          <t>-27,26; 96,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 90,99</t>
+          <t>-9,07; 98,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 95,62</t>
+          <t>-33,44; 90,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 107,27</t>
+          <t>-18,02; 110,63</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,31%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,28</t>
+          <t>0,11; 7,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,88</t>
+          <t>-0,62; 6,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,44</t>
+          <t>-5,19; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 7,98</t>
+          <t>-3,46; 8,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 132,12</t>
+          <t>0,88; 138,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 86,85</t>
+          <t>-6,63; 94,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 19,41</t>
+          <t>-42,32; 17,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 144,44</t>
+          <t>-23,69; 187,99</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>-19,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-33,15%</t>
+          <t>-33,06%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,21</t>
+          <t>-7,07; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 6,41</t>
+          <t>-2,75; 6,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,53</t>
+          <t>-0,5; 8,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -2,46</t>
+          <t>-10,15; -2,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 24,5</t>
+          <t>-47,54; 23,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 60,11</t>
+          <t>-17,72; 57,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 105,03</t>
+          <t>-6,53; 98,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,39; -14,16</t>
+          <t>-47,94; -13,72</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,79</t>
+          <t>28,78</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>173,01%</t>
+          <t>172,3%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 4,35</t>
+          <t>-5,27; 3,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 3,92</t>
+          <t>-8,23; 3,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,27</t>
+          <t>-2,17; 7,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 62,48</t>
+          <t>-0,06; 61,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 50,29</t>
+          <t>-37,48; 42,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 31,17</t>
+          <t>-43,57; 28,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 100,76</t>
+          <t>-21,32; 92,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 434,92</t>
+          <t>-0,84; 446,78</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>24,4%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,82</t>
+          <t>-5,02; 7,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 9,25</t>
+          <t>-5,96; 8,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,06</t>
+          <t>2,74; 14,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 12,75</t>
+          <t>1,87; 12,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 66,46</t>
+          <t>-26,83; 61,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 59,08</t>
+          <t>-22,72; 56,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,01; 234,64</t>
+          <t>21,18; 218,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 51,04</t>
+          <t>5,22; 48,8</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1340,22 +1340,22 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,41%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,69</t>
+          <t>0,07; 2,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,56</t>
+          <t>0,45; 3,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,91</t>
+          <t>0,35; 2,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 20,42</t>
+          <t>0,38; 20,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 45,4</t>
+          <t>0,46; 44,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,14; 41,42</t>
+          <t>4,5; 41,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 46,21</t>
+          <t>4,3; 46,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 170,32</t>
+          <t>2,86; 191,86</t>
         </is>
       </c>
     </row>
